--- a/Entrega Final/Descripciones de Tablas.xlsx
+++ b/Entrega Final/Descripciones de Tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Desktop\Curso_SQL_CoderHouse\Entrega Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Filosi\Desktop\Curso_SQL_CoderHouse\Entrega Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F11A8-8E15-4B61-98B1-208497A85948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806166D-B5A1-48BB-890F-57BE68655776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{52A272C3-49A8-4BA9-ABE7-C6D5DECEF748}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52A272C3-49A8-4BA9-ABE7-C6D5DECEF748}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="69">
   <si>
     <t>PK</t>
   </si>
@@ -65,66 +65,21 @@
     <t>INT</t>
   </si>
   <si>
-    <t>Tabla en la que se asentaran los productos</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Id del Producto</t>
-  </si>
-  <si>
-    <t>Id_Rubro</t>
-  </si>
-  <si>
-    <t>Id_Proveedor</t>
-  </si>
-  <si>
     <t>Denominacion</t>
   </si>
   <si>
-    <t>Stock_minimo</t>
-  </si>
-  <si>
-    <t>Stock_real</t>
-  </si>
-  <si>
-    <t>Precio_unitario</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
     <t>DECIMAL</t>
   </si>
   <si>
-    <t>Id del Rubro al que pertenece el producto</t>
-  </si>
-  <si>
-    <t>Id del Proveedor al que pertenece el producto</t>
-  </si>
-  <si>
-    <t>Denominacion del producto</t>
-  </si>
-  <si>
-    <t>Stock minimo del producto</t>
-  </si>
-  <si>
-    <t>Stock real del producto</t>
-  </si>
-  <si>
-    <t>Precio unitario del producto</t>
-  </si>
-  <si>
     <t>Tematica: Una base de datos para manejo de stocks, generación de presupuestos, facturación y manejo de proveedores. </t>
   </si>
   <si>
     <t xml:space="preserve">Tabla </t>
   </si>
   <si>
-    <t>productos</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -138,13 +93,163 @@
   </si>
   <si>
     <t>auto_increment</t>
+  </si>
+  <si>
+    <t>Id_proveedor</t>
+  </si>
+  <si>
+    <t>Tabla con los Paises para las ubicaciones</t>
+  </si>
+  <si>
+    <t>paises</t>
+  </si>
+  <si>
+    <t>Id_pais</t>
+  </si>
+  <si>
+    <t>Id del Pais</t>
+  </si>
+  <si>
+    <t>Denominacion del Pais</t>
+  </si>
+  <si>
+    <t>provincias</t>
+  </si>
+  <si>
+    <t>Tabla con las Provincias para las ubicaciones</t>
+  </si>
+  <si>
+    <t>Id_provincia</t>
+  </si>
+  <si>
+    <t>Id de la Provincia</t>
+  </si>
+  <si>
+    <t>Id del Pais al que pertenece</t>
+  </si>
+  <si>
+    <t>localidades</t>
+  </si>
+  <si>
+    <t>Tabla con las Localidades para las ubicaciones</t>
+  </si>
+  <si>
+    <t>Id_localidad</t>
+  </si>
+  <si>
+    <t>Id de la Localidad</t>
+  </si>
+  <si>
+    <t>Id de la Provincia a la que pertenece</t>
+  </si>
+  <si>
+    <t>Denominacion de la Provincia</t>
+  </si>
+  <si>
+    <t>Denominacion de la Localidad</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Clientes</t>
+  </si>
+  <si>
+    <t>Id_cliente</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Id del Cliente</t>
+  </si>
+  <si>
+    <t>Id de la Localidad a la que pertenece el Cliente</t>
+  </si>
+  <si>
+    <t>Denominacion del Cliente</t>
+  </si>
+  <si>
+    <t>Direccion del Cliente</t>
+  </si>
+  <si>
+    <t>Telefono del Cliente</t>
+  </si>
+  <si>
+    <t>precios_lista</t>
+  </si>
+  <si>
+    <t>Tabla con los tipos de Precios de Lista a Aplicar</t>
+  </si>
+  <si>
+    <t>Id_precio_lista</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Denominacion del Tipo de Precio de Lista</t>
+  </si>
+  <si>
+    <t>Porcentaje a Aplicar</t>
+  </si>
+  <si>
+    <t>rubros</t>
+  </si>
+  <si>
+    <t>Tabla con los distintos tipos de Rubros de los Productos</t>
+  </si>
+  <si>
+    <t>Id_rubro</t>
+  </si>
+  <si>
+    <t>Id del Rubro</t>
+  </si>
+  <si>
+    <t>Denominacion del Rubro</t>
+  </si>
+  <si>
+    <t>proveedores</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Proveedores</t>
+  </si>
+  <si>
+    <t>Nombre_empresa</t>
+  </si>
+  <si>
+    <t>Cuit</t>
+  </si>
+  <si>
+    <t>Id del proveedor</t>
+  </si>
+  <si>
+    <t>Id de la Localidad del Proveedor</t>
+  </si>
+  <si>
+    <t>Nombre de la Empresa del Proveedor</t>
+  </si>
+  <si>
+    <t>Denominacion del Proveedor</t>
+  </si>
+  <si>
+    <t>Cuit del Proveedor</t>
+  </si>
+  <si>
+    <t>Direccion del Proveedor</t>
+  </si>
+  <si>
+    <t>Telefono del Proveedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +282,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -262,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,6 +393,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,35 +719,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBAF23E-5256-410F-A533-F9E6DC65DDCE}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -635,12 +760,12 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -649,9 +774,9 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -660,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -669,23 +794,23 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
@@ -693,124 +818,836 @@
         <v>6</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="9">
+        <v>50</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <v>50</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="8">
+        <v>20</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="9">
+        <v>50</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="9">
+        <v>50</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>25</v>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="8">
+        <v>50</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="9">
+        <v>50</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="8">
+        <v>20</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="9">
+        <v>100</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="8">
+        <v>15</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Entrega Final/Descripciones de Tablas.xlsx
+++ b/Entrega Final/Descripciones de Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Filosi\Desktop\Curso_SQL_CoderHouse\Entrega Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806166D-B5A1-48BB-890F-57BE68655776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B3920B-D17A-4B0F-90F5-39546218569E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52A272C3-49A8-4BA9-ABE7-C6D5DECEF748}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{52A272C3-49A8-4BA9-ABE7-C6D5DECEF748}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="185">
   <si>
     <t>PK</t>
   </si>
@@ -243,6 +243,354 @@
   </si>
   <si>
     <t>Telefono del Proveedor</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Productos</t>
+  </si>
+  <si>
+    <t>Id_producto</t>
+  </si>
+  <si>
+    <t>Stock_minimo</t>
+  </si>
+  <si>
+    <t>Stock_real</t>
+  </si>
+  <si>
+    <t>Precio_unitario</t>
+  </si>
+  <si>
+    <t>Denominacion del Producto</t>
+  </si>
+  <si>
+    <t>Stock minimo del Producto</t>
+  </si>
+  <si>
+    <t>Stock real del Producto</t>
+  </si>
+  <si>
+    <t>Precio unitario del Producto</t>
+  </si>
+  <si>
+    <t>Id del proveedor del Producto</t>
+  </si>
+  <si>
+    <t>Id del rubro del Producto</t>
+  </si>
+  <si>
+    <t>Id del Producto</t>
+  </si>
+  <si>
+    <t>pedidos</t>
+  </si>
+  <si>
+    <t>Id_pedido</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Pedidos de renovacion de stock</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio_final</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Id del Pedido</t>
+  </si>
+  <si>
+    <t>Id del producto del Pedido</t>
+  </si>
+  <si>
+    <t>Id del proveedor del Pedido</t>
+  </si>
+  <si>
+    <t>Cantidad del Pedido</t>
+  </si>
+  <si>
+    <t>Precio final del Pedido</t>
+  </si>
+  <si>
+    <t>Fecha del Pedido</t>
+  </si>
+  <si>
+    <t>posiciones_empleados</t>
+  </si>
+  <si>
+    <t>Tabla con los tipos de Posiciones de Empleados</t>
+  </si>
+  <si>
+    <t>Id_posicion_empleado</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Empleados</t>
+  </si>
+  <si>
+    <t>Id_empleado</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>Id de la posicion de empleado</t>
+  </si>
+  <si>
+    <t>Denominacion de la Posicion</t>
+  </si>
+  <si>
+    <t>Salario de la Posicion</t>
+  </si>
+  <si>
+    <t>Nombre del Empleado</t>
+  </si>
+  <si>
+    <t>Apellido del Empleado</t>
+  </si>
+  <si>
+    <t>Edad del Empleado</t>
+  </si>
+  <si>
+    <t>DNI del Empleado</t>
+  </si>
+  <si>
+    <t>Direccion del Empleado</t>
+  </si>
+  <si>
+    <t>Telefono del Empleado</t>
+  </si>
+  <si>
+    <t>Id del Empleado</t>
+  </si>
+  <si>
+    <t>Id de la posicion del Empleado</t>
+  </si>
+  <si>
+    <t>Id de la locacilad del Empleado</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento del Empleado</t>
+  </si>
+  <si>
+    <t>locales</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de los Locales</t>
+  </si>
+  <si>
+    <t>Id_local</t>
+  </si>
+  <si>
+    <t>Id del Local</t>
+  </si>
+  <si>
+    <t>Id de la locacilad del Local</t>
+  </si>
+  <si>
+    <t>Id del Empleado encargado del Local</t>
+  </si>
+  <si>
+    <t>Direccion del Local</t>
+  </si>
+  <si>
+    <t>Telefono del Local</t>
+  </si>
+  <si>
+    <t>presupuestos_cabecera</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de las cabeceras  de los presupuestos</t>
+  </si>
+  <si>
+    <t>Id_presupuesto</t>
+  </si>
+  <si>
+    <t>Id del Presupuesto</t>
+  </si>
+  <si>
+    <t>Id del cliente del Presupuesto</t>
+  </si>
+  <si>
+    <t>Id del local que genero el Presupuesto</t>
+  </si>
+  <si>
+    <t>presupuestos_cuerpo</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion del cuerpo de los presupuestos</t>
+  </si>
+  <si>
+    <t>Id_presupuesto_cuerpo</t>
+  </si>
+  <si>
+    <t>Precio_real</t>
+  </si>
+  <si>
+    <t>Porcentaje_real</t>
+  </si>
+  <si>
+    <t>Id del Presupuesto cuerpo</t>
+  </si>
+  <si>
+    <t>Id del Presupuesto del Cuerpo</t>
+  </si>
+  <si>
+    <t>Id del Producto del Presupuesto</t>
+  </si>
+  <si>
+    <t>Id del Precio de Lista del Presupuesto</t>
+  </si>
+  <si>
+    <t>Precio real del Presupuesto</t>
+  </si>
+  <si>
+    <t>Porcentaje real del Presupuesto</t>
+  </si>
+  <si>
+    <t>Cantidad de Productos del Presupuesto</t>
+  </si>
+  <si>
+    <t>encargos_cabecera</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de las cabeceras  de los encargos</t>
+  </si>
+  <si>
+    <t>Id_encargo</t>
+  </si>
+  <si>
+    <t>Id del Encargo</t>
+  </si>
+  <si>
+    <t>Id del cliente del Encargo</t>
+  </si>
+  <si>
+    <t>Id del local que genero el Encargo</t>
+  </si>
+  <si>
+    <t>Id_encargo_cuerpo</t>
+  </si>
+  <si>
+    <t>Id del Encargo cuerpo</t>
+  </si>
+  <si>
+    <t>Id del Encargo del Cuerpo</t>
+  </si>
+  <si>
+    <t>Id del Producto del Encargo</t>
+  </si>
+  <si>
+    <t>Id del Precio de Lista del Encargo</t>
+  </si>
+  <si>
+    <t>Precio real del Encargo</t>
+  </si>
+  <si>
+    <t>Porcentaje real del Encargo</t>
+  </si>
+  <si>
+    <t>Cantidad de Productos del Encargo</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion de las Ventas</t>
+  </si>
+  <si>
+    <t>Id_venta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Id de la Venta</t>
+  </si>
+  <si>
+    <t>Id del Local de la Venta</t>
+  </si>
+  <si>
+    <t>Id del Cliente de la Venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de la Venta </t>
+  </si>
+  <si>
+    <t>Total de la Venta</t>
+  </si>
+  <si>
+    <t>before_ventas_log</t>
+  </si>
+  <si>
+    <t>Id_before_ventas_log</t>
+  </si>
+  <si>
+    <t>Id_registro</t>
+  </si>
+  <si>
+    <t>Nombre_usuario</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Operación</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Id del log</t>
+  </si>
+  <si>
+    <t>Id del Registro</t>
+  </si>
+  <si>
+    <t>Nombre del Usuario de la modificacion</t>
+  </si>
+  <si>
+    <t>Fecha de la modificacion</t>
+  </si>
+  <si>
+    <t>Hora de la modificacion</t>
+  </si>
+  <si>
+    <t>Operación que realizo: "Update", "Create" o "Delete"</t>
+  </si>
+  <si>
+    <t>after_ventas_log</t>
+  </si>
+  <si>
+    <t>encargos_cuerpo</t>
+  </si>
+  <si>
+    <t>Tabla con la informacion del cuerpo de los encargos</t>
   </si>
 </sst>
 </file>
@@ -313,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -369,12 +717,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC9C9C9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -402,6 +759,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,33 +1079,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBAF23E-5256-410F-A533-F9E6DC65DDCE}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -760,7 +1120,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
@@ -774,7 +1134,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -800,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -824,7 +1184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>9</v>
@@ -844,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -858,7 +1218,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -872,7 +1232,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -898,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -922,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -942,7 +1302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -962,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1336,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -990,7 +1350,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1080,7 +1440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1454,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1468,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -1198,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
         <v>40</v>
@@ -1218,7 +1578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>41</v>
@@ -1238,7 +1598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1612,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1626,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>9</v>
@@ -1336,7 +1696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
         <v>50</v>
@@ -1354,7 +1714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1728,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1742,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
         <v>9</v>
@@ -1452,7 +1812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1826,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1840,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
         <v>9</v>
@@ -1570,7 +1930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
         <v>60</v>
@@ -1590,7 +1950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
         <v>61</v>
@@ -1610,7 +1970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
         <v>40</v>
@@ -1630,7 +1990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
         <v>41</v>
@@ -1648,6 +2008,1998 @@
       <c r="H60" s="4"/>
       <c r="I60" s="7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="9">
+        <v>50</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="9">
+        <v>50</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="9">
+        <v>50</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="C101" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="8">
+        <v>50</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="8">
+        <v>20</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+      <c r="C105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="8">
+        <v>100</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="9">
+        <v>20</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="9">
+        <v>100</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+      <c r="C116" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="8">
+        <v>20</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+      <c r="C134" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="4"/>
+      <c r="C136" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="4"/>
+      <c r="C154" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+      <c r="C156" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="8"/>
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="8"/>
+      <c r="F162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="4"/>
+      <c r="C166" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="8"/>
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="8"/>
+      <c r="F172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="4"/>
+      <c r="C174" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="8"/>
+      <c r="F174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="4"/>
+      <c r="C176" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C177" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="9"/>
+      <c r="F184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+      <c r="C185" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="6"/>
+      <c r="C186" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E186" s="9"/>
+      <c r="F186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="4"/>
+      <c r="C187" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E187" s="8"/>
+      <c r="F187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C188" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>20</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
